--- a/设计文档/财务管理子系统接口说明.xlsx
+++ b/设计文档/财务管理子系统接口说明.xlsx
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"cash":99.9,"check":9.9,"coupon":0.99}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>某一个时间段内部门收订的金额情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +492,10 @@
   </si>
   <si>
     <t>result                 int                        更改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"stationID":1,"cash":99.9,"check":9.9,"coupon":0.99}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1031,7 +1031,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -1102,7 +1102,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1110,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -1147,17 +1147,17 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -1178,7 +1178,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1210,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -1223,17 +1223,17 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -1299,17 +1299,17 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1330,7 +1330,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1338,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1375,7 +1375,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1401,7 +1401,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1409,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1446,7 +1446,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1472,7 +1472,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1480,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1538,12 +1538,12 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1551,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1588,37 +1588,37 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1639,7 +1639,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1647,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1684,27 +1684,27 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1733,7 +1733,7 @@
         <v>15</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -1741,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -1770,7 +1770,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -1791,7 +1791,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -1836,27 +1836,27 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -1885,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -1993,12 +1993,12 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2027,7 +2027,7 @@
         <v>15</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -2043,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2064,27 +2064,27 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2113,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
@@ -2153,12 +2153,12 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
@@ -2179,12 +2179,12 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2192,7 +2192,7 @@
         <v>15</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
@@ -2208,7 +2208,7 @@
         <v>3</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
@@ -2229,12 +2229,12 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
@@ -2255,12 +2255,12 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2268,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
@@ -2284,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
@@ -2292,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
@@ -2305,12 +2305,12 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2339,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
